--- a/artfynd/A 29942-2020.xlsx
+++ b/artfynd/A 29942-2020.xlsx
@@ -1321,10 +1321,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>511484.1561650768</v>
+        <v>511484</v>
       </c>
       <c r="R7" t="n">
-        <v>6366214.787571648</v>
+        <v>6366215</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1354,19 +1354,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
